--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/COFORGE LIMITED Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -1350,7 +1350,7 @@
         <v>16.73</v>
       </c>
       <c r="T8">
-        <v>0.06647058823529414</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U8">
         <v>99</v>
@@ -2167,7 +2167,7 @@
         <v>275.71</v>
       </c>
       <c r="G16">
-        <v>18.63157894736842</v>
+        <v>18.63</v>
       </c>
       <c r="H16">
         <v>323.5</v>
@@ -2313,7 +2313,7 @@
         <v>18</v>
       </c>
       <c r="T17">
-        <v>0.06647058823529414</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U17">
         <v>95.09</v>
@@ -2420,7 +2420,7 @@
         <v>10.66</v>
       </c>
       <c r="T18">
-        <v>0.06647058823529414</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U18">
         <v>107.23</v>
